--- a/readkeyboard_options.xlsx
+++ b/readkeyboard_options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffKarle\Documents\cinder_vs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{B946FB9D-DF3B-4B37-9DB8-00DD0E1FC70E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E177E757-CC67-4958-B2FE-DB3F1E3F3A26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="16665" windowHeight="12960" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
+    <workbookView xWindow="-20025" yWindow="7110" windowWidth="17415" windowHeight="11385" xr2:uid="{91536ED5-E4E4-4F8E-9A8A-8957252223C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <t>readkeyboard() options</t>
   </si>
@@ -208,6 +208,234 @@
   </si>
   <si>
     <t>0-65535</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>transition_lock</t>
+  </si>
+  <si>
+    <t>toggle (0/1)</t>
+  </si>
+  <si>
+    <t>0-max_transitions</t>
+  </si>
+  <si>
+    <t>strobe_mode</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>fill_solid(black)</t>
+  </si>
+  <si>
+    <t>one_sin_pal</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>confeti</t>
+  </si>
+  <si>
+    <t>confetti_ring</t>
+  </si>
+  <si>
+    <t>two_sin</t>
+  </si>
+  <si>
+    <t>two_sin_ring</t>
+  </si>
+  <si>
+    <t>two_sin_pal_ring</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>ripple</t>
+  </si>
+  <si>
+    <t>ripple_through_pal</t>
+  </si>
+  <si>
+    <t>colorwave</t>
+  </si>
+  <si>
+    <t>rainbow_march</t>
+  </si>
+  <si>
+    <t>rainbow_march_ring</t>
+  </si>
+  <si>
+    <t>spiral_sin</t>
+  </si>
+  <si>
+    <t>one_sin_spiral</t>
+  </si>
+  <si>
+    <t>juggle_ring</t>
+  </si>
+  <si>
+    <t>juggle_ring_onedir</t>
+  </si>
+  <si>
+    <t>juggle_columns_all</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_all</t>
+  </si>
+  <si>
+    <t>sinelon_rainbow</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>fire_pal</t>
+  </si>
+  <si>
+    <t>fire_mirror</t>
+  </si>
+  <si>
+    <t>fire_mirror_pal</t>
+  </si>
+  <si>
+    <t>fire_columns</t>
+  </si>
+  <si>
+    <t>fire_columns_pal</t>
+  </si>
+  <si>
+    <t>fire_mirror_columns</t>
+  </si>
+  <si>
+    <t>fire_mirror_columns_pal</t>
+  </si>
+  <si>
+    <t>juggle_fire</t>
+  </si>
+  <si>
+    <t>juggle_onedir_fire</t>
+  </si>
+  <si>
+    <t>juggle_columns_fire</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_fire</t>
+  </si>
+  <si>
+    <t>juggle_fire_pal</t>
+  </si>
+  <si>
+    <t>juggle_onedir_fire_pal</t>
+  </si>
+  <si>
+    <t>juggle_columns_fire_pal</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_fire_pal</t>
+  </si>
+  <si>
+    <t>juggle_fire_mirror</t>
+  </si>
+  <si>
+    <t>juggle_onedir_fire_mirror</t>
+  </si>
+  <si>
+    <t>juggle_columns_fire_mirror</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_fire_mirror</t>
+  </si>
+  <si>
+    <t>juggle_fire_mirror_pal</t>
+  </si>
+  <si>
+    <t>juggle_onedir_fire_mirror_pal</t>
+  </si>
+  <si>
+    <t>juggle_columns_fire_mirror_pal</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_fire_mirror_pal</t>
+  </si>
+  <si>
+    <t>juggle_fire_columns</t>
+  </si>
+  <si>
+    <t>juggle_onedir_fire_columns</t>
+  </si>
+  <si>
+    <t>juggle_columns_fire_columns</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_fire_columns</t>
+  </si>
+  <si>
+    <t>juggle_fire_columns_pal</t>
+  </si>
+  <si>
+    <t>juggle_onedir_fire_columns_pal</t>
+  </si>
+  <si>
+    <t>juggle_columns_fire_columns_pal</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_fire_columns_pal</t>
+  </si>
+  <si>
+    <t>juggle_fire_mirror_columns</t>
+  </si>
+  <si>
+    <t>juggle_onedir_fire_mirror_columns</t>
+  </si>
+  <si>
+    <t>juggle_columns_fire_mirror_columns</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_fire_mirror_columns</t>
+  </si>
+  <si>
+    <t>juggle_fire_mirror_columns_pal</t>
+  </si>
+  <si>
+    <t>juggle_onedir_fire_mirror_columns_pal</t>
+  </si>
+  <si>
+    <t>juggle_columns_fire_mirror_columns_pal</t>
+  </si>
+  <si>
+    <t>juggle_columns_onedir_fire_mirror_columns_pal</t>
+  </si>
+  <si>
+    <t>rainbow_wave_moving_dot</t>
+  </si>
+  <si>
+    <t>fire_spiral</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>comboB palette</t>
+  </si>
+  <si>
+    <t>0 - palette_count</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>comboD palette</t>
   </si>
 </sst>
 </file>
@@ -263,8 +491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB685E2-B044-48EC-B274-031DC42D6822}" name="Table1" displayName="Table1" ref="C4:F28" totalsRowShown="0">
-  <autoFilter ref="C4:F28" xr:uid="{7E3B4C9F-74BB-4774-AA55-71F0D54B5B91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DB685E2-B044-48EC-B274-031DC42D6822}" name="Table1" displayName="Table1" ref="B4:E32" totalsRowShown="0">
+  <autoFilter ref="B4:E32" xr:uid="{7E3B4C9F-74BB-4774-AA55-71F0D54B5B91}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4CA7801F-5C51-46B3-8884-F9D931171BF1}" name="ascii "/>
     <tableColumn id="2" xr3:uid="{03A3BFB1-C188-4714-9F01-CF3B471E7095}" name="letter"/>
@@ -272,6 +500,19 @@
     <tableColumn id="4" xr3:uid="{8688B40B-086B-454F-9D1F-C4292D36D289}" name="range"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4890D967-C7E6-457D-A1EF-6B10F8FBEABB}" name="Table3" displayName="Table3" ref="G4:H68" totalsRowShown="0">
+  <autoFilter ref="G4:H68" xr:uid="{8B4B321F-08B4-468B-97EB-F147B41558B9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8D1E029B-9170-4BAC-B3A8-D6A472CF8D47}" name="mode">
+      <calculatedColumnFormula>G4+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{6B4AF1C7-F05B-43B1-91A3-E04EEFEEE20D}" name="effect"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -572,379 +813,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E5B464-4504-4F4A-A97E-6EE218327A39}">
-  <dimension ref="C3:F28"/>
+  <dimension ref="B3:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <f>G7+1</f>
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <f>G8+1</f>
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G66" si="0">G9+1</f>
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5">
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
         <v>97</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6">
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
         <v>98</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7">
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8">
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
         <v>101</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9">
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H40" t="s">
         <v>102</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10">
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
         <v>103</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11">
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
         <v>104</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12">
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H43" t="s">
         <v>105</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13">
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
         <v>106</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14">
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
         <v>107</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15">
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
         <v>108</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16">
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H47" t="s">
         <v>109</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17">
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H48" t="s">
         <v>110</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18">
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
         <v>111</v>
       </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19">
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20">
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
         <v>113</v>
       </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21">
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H52" t="s">
         <v>114</v>
       </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22">
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H53" t="s">
         <v>115</v>
       </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23">
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H54" t="s">
         <v>116</v>
       </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24">
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
         <v>117</v>
       </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25">
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H56" t="s">
         <v>118</v>
       </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26">
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H57" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27">
+      <c r="H58" t="s">
         <v>120</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>121</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="H60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="0"/>
         <v>58</v>
+      </c>
+      <c r="H63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f>G66+1</f>
+        <v>62</v>
+      </c>
+      <c r="H67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f>G67+1</f>
+        <v>63</v>
+      </c>
+      <c r="H68" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <ignoredErrors>
+    <ignoredError sqref="G6:H6 G7:H7 G5:H5" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>